--- a/runs/run1/isa.run.xlsx
+++ b/runs/run1/isa.run.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David Zimmer\source\repos\Hackathon_ARCexample_rnaseq\runs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David Zimmer\source\repos\Hackathon_ARCexample_rnaseq\runs\run1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D803DD48-FCE0-4394-8F9B-7FDAE0C9BFAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{457D8F03-0EE2-42D1-89D4-3B5E6DC995F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="24496" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="630" yWindow="1695" windowWidth="18225" windowHeight="11423" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dictionary" sheetId="4" r:id="rId1"/>
@@ -144,12 +144,6 @@
     <t>final_sigma_sq</t>
   </si>
   <si>
-    <t>./03_kallisto_df.csv</t>
-  </si>
-  <si>
-    <t>./04_sleuth_dge.csv</t>
-  </si>
-  <si>
     <t>gene counts</t>
   </si>
   <si>
@@ -322,6 +316,12 @@
   </si>
   <si>
     <t>Transcripts Per Kilobase Million</t>
+  </si>
+  <si>
+    <t>./runs/run1/03_kallisto_df.csv</t>
+  </si>
+  <si>
+    <t>./runs/run1/04_sleuth_dge.csv</t>
   </si>
 </sst>
 </file>
@@ -838,7 +838,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K2" sqref="K2"/>
+      <selection pane="bottomRight" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -857,7 +857,7 @@
   <sheetData>
     <row r="1" spans="1:16" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>2</v>
@@ -895,22 +895,22 @@
         <v>12</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>30</v>
+        <v>88</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H2" s="7"/>
       <c r="I2" s="5"/>
@@ -925,22 +925,22 @@
         <v>13</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>30</v>
+        <v>88</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H3" s="7"/>
       <c r="I3" s="5"/>
@@ -955,22 +955,22 @@
         <v>14</v>
       </c>
       <c r="B4" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>32</v>
       </c>
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
@@ -985,22 +985,22 @@
         <v>15</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>30</v>
+        <v>88</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
@@ -1015,22 +1015,22 @@
         <v>16</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>30</v>
+        <v>88</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
@@ -1045,22 +1045,22 @@
         <v>17</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>30</v>
+        <v>88</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
@@ -1075,22 +1075,22 @@
         <v>18</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>30</v>
+        <v>88</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>18</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
@@ -1105,22 +1105,22 @@
         <v>12</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>31</v>
+        <v>89</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
@@ -1135,22 +1135,22 @@
         <v>19</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>31</v>
+        <v>89</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H10" s="9"/>
       <c r="I10" s="7"/>
@@ -1165,22 +1165,22 @@
         <v>20</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>31</v>
+        <v>89</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H11" s="9"/>
       <c r="I11" s="7"/>
@@ -1195,22 +1195,22 @@
         <v>21</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>31</v>
+        <v>89</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H12" s="7"/>
       <c r="I12" s="9"/>
@@ -1225,22 +1225,22 @@
         <v>22</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>31</v>
+        <v>89</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H13" s="7"/>
       <c r="I13" s="9"/>
@@ -1255,22 +1255,22 @@
         <v>23</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>31</v>
+        <v>89</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H14" s="7"/>
       <c r="I14" s="9"/>
@@ -1285,22 +1285,22 @@
         <v>24</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>31</v>
+        <v>89</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
@@ -1315,22 +1315,22 @@
         <v>25</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>31</v>
+        <v>89</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H16" s="7"/>
       <c r="I16" s="9"/>
@@ -1345,22 +1345,22 @@
         <v>26</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>31</v>
+        <v>89</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H17" s="7"/>
       <c r="I17" s="9"/>
@@ -1375,22 +1375,22 @@
         <v>27</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>31</v>
+        <v>89</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H18" s="7"/>
       <c r="I18" s="9"/>
@@ -1405,22 +1405,22 @@
         <v>28</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>31</v>
+        <v>89</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H19" s="7"/>
       <c r="I19" s="9"/>
@@ -1435,22 +1435,22 @@
         <v>29</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>31</v>
+        <v>89</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
@@ -1499,8 +1499,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{345B67DD-E558-486D-8E4E-6B0E0B27FBDB}">
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -1513,7 +1513,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A1" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>2</v>
@@ -1530,10 +1530,10 @@
         <v>12</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>30</v>
+        <v>88</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D2" s="7"/>
     </row>
@@ -1542,10 +1542,10 @@
         <v>13</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>30</v>
+        <v>88</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D3" s="7"/>
     </row>
@@ -1554,10 +1554,10 @@
         <v>14</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>30</v>
+        <v>88</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D4" s="7"/>
     </row>
@@ -1566,7 +1566,7 @@
         <v>15</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>30</v>
+        <v>88</v>
       </c>
       <c r="C5" s="7" t="str">
         <f>Dictionary!A4</f>
@@ -1579,10 +1579,10 @@
         <v>16</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>30</v>
+        <v>88</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D6" s="7"/>
     </row>
@@ -1591,10 +1591,10 @@
         <v>17</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>30</v>
+        <v>88</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D7" s="7"/>
     </row>
@@ -1603,10 +1603,10 @@
         <v>18</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>30</v>
+        <v>88</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D8" s="7"/>
     </row>
@@ -1615,10 +1615,10 @@
         <v>12</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>31</v>
+        <v>89</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D9" s="7"/>
     </row>
@@ -1627,7 +1627,7 @@
         <v>19</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>31</v>
+        <v>89</v>
       </c>
       <c r="C10" s="6" t="str">
         <f>Dictionary!A12</f>
@@ -1640,7 +1640,7 @@
         <v>20</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>31</v>
+        <v>89</v>
       </c>
       <c r="C11" s="7" t="str">
         <f>Dictionary!A10</f>
@@ -1653,7 +1653,7 @@
         <v>21</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>31</v>
+        <v>89</v>
       </c>
       <c r="C12" s="7" t="str">
         <f>Dictionary!A15</f>
@@ -1666,7 +1666,7 @@
         <v>21</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>31</v>
+        <v>89</v>
       </c>
       <c r="C13" s="7" t="str">
         <f>Dictionary!A14</f>
@@ -1679,7 +1679,7 @@
         <v>21</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>31</v>
+        <v>89</v>
       </c>
       <c r="C14" s="7" t="str">
         <f>Dictionary!A20</f>
@@ -1692,7 +1692,7 @@
         <v>22</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>31</v>
+        <v>89</v>
       </c>
       <c r="C15" s="7" t="str">
         <f>Dictionary!A18</f>
@@ -1705,7 +1705,7 @@
         <v>22</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>31</v>
+        <v>89</v>
       </c>
       <c r="C16" s="7" t="str">
         <f>Dictionary!A19</f>
@@ -1718,7 +1718,7 @@
         <v>23</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>31</v>
+        <v>89</v>
       </c>
       <c r="C17" s="7" t="str">
         <f>Dictionary!A8</f>
@@ -1731,7 +1731,7 @@
         <v>24</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>31</v>
+        <v>89</v>
       </c>
       <c r="C18" s="7" t="str">
         <f>Dictionary!A4</f>
@@ -1744,7 +1744,7 @@
         <v>24</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>31</v>
+        <v>89</v>
       </c>
       <c r="C19" s="7" t="str">
         <f>Dictionary!A8</f>
@@ -1757,7 +1757,7 @@
         <v>25</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>31</v>
+        <v>89</v>
       </c>
       <c r="C20" s="7" t="str">
         <f>Dictionary!A4</f>
@@ -1770,7 +1770,7 @@
         <v>25</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>31</v>
+        <v>89</v>
       </c>
       <c r="C21" s="7" t="str">
         <f>Dictionary!A8</f>
@@ -1783,7 +1783,7 @@
         <v>26</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>31</v>
+        <v>89</v>
       </c>
       <c r="C22" s="7" t="str">
         <f>Dictionary!A4</f>
@@ -1796,7 +1796,7 @@
         <v>26</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>31</v>
+        <v>89</v>
       </c>
       <c r="C23" s="7" t="str">
         <f>Dictionary!A8</f>
@@ -1809,7 +1809,7 @@
         <v>27</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>31</v>
+        <v>89</v>
       </c>
       <c r="C24" s="7" t="str">
         <f>Dictionary!A4</f>
@@ -1822,7 +1822,7 @@
         <v>27</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>31</v>
+        <v>89</v>
       </c>
       <c r="C25" s="7" t="str">
         <f>Dictionary!A8</f>
@@ -1835,7 +1835,7 @@
         <v>28</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>31</v>
+        <v>89</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>24</v>
@@ -1847,7 +1847,7 @@
         <v>28</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>31</v>
+        <v>89</v>
       </c>
       <c r="C27" s="6" t="s">
         <v>27</v>
@@ -1859,7 +1859,7 @@
         <v>29</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>31</v>
+        <v>89</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>27</v>
@@ -1871,7 +1871,7 @@
         <v>29</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>31</v>
+        <v>89</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>28</v>

--- a/runs/run1/isa.run.xlsx
+++ b/runs/run1/isa.run.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David Zimmer\source\repos\Hackathon_ARCexample_rnaseq\runs\run1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David Zimmer\source\repos\Hackathon\Hackathon_ARCexample_rnaseq\runs\run1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{457D8F03-0EE2-42D1-89D4-3B5E6DC995F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BB929E4-AB9D-4248-B750-83047D76EF0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="630" yWindow="1695" windowWidth="18225" windowHeight="11423" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="7710" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dictionary" sheetId="4" r:id="rId1"/>
@@ -481,7 +481,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -495,6 +495,7 @@
     <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="3" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -832,13 +833,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:R24"/>
+  <dimension ref="A1:R32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B9" sqref="B9"/>
+      <selection pane="bottomRight" activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -847,12 +848,13 @@
     <col min="2" max="2" width="26.59765625" customWidth="1"/>
     <col min="3" max="3" width="37.265625" customWidth="1"/>
     <col min="4" max="4" width="46" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="64.53125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.1328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.3984375" customWidth="1"/>
+    <col min="5" max="5" width="8.3984375" customWidth="1"/>
+    <col min="6" max="6" width="11.796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="64.53125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.1328125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11" customWidth="1"/>
     <col min="11" max="11" width="17.59765625" customWidth="1"/>
+    <col min="12" max="12" width="17.73046875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
@@ -868,26 +870,29 @@
       <c r="D1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="G1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="H1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="I1" s="8" t="s">
         <v>4</v>
-      </c>
-      <c r="I1" s="11" t="s">
-        <v>6</v>
       </c>
       <c r="J1" s="10" t="s">
         <v>7</v>
       </c>
       <c r="K1" s="10" t="s">
         <v>8</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
@@ -903,19 +908,20 @@
       <c r="D2" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="5"/>
+      <c r="F2" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="G2" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="H2" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="H2" s="7"/>
-      <c r="I2" s="5"/>
+      <c r="I2" s="7"/>
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
+      <c r="L2" s="7"/>
       <c r="N2" s="7"/>
       <c r="O2" s="7"/>
       <c r="P2" s="7"/>
@@ -933,19 +939,20 @@
       <c r="D3" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="5"/>
+      <c r="F3" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="G3" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="H3" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="H3" s="7"/>
-      <c r="I3" s="5"/>
+      <c r="I3" s="7"/>
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
+      <c r="L3" s="7"/>
       <c r="N3" s="7"/>
       <c r="O3" s="7"/>
       <c r="P3" s="7"/>
@@ -963,19 +970,20 @@
       <c r="D4" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="5"/>
+      <c r="F4" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="H4" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="H4" s="5"/>
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
+      <c r="L4" s="7"/>
       <c r="N4" s="7"/>
       <c r="O4" s="7"/>
       <c r="P4" s="7"/>
@@ -993,19 +1001,20 @@
       <c r="D5" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="5"/>
+      <c r="F5" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="H5" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="H5" s="5"/>
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
+      <c r="L5" s="7"/>
       <c r="N5" s="7"/>
       <c r="O5" s="7"/>
       <c r="P5" s="7"/>
@@ -1023,19 +1032,20 @@
       <c r="D6" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="5"/>
+      <c r="F6" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="H6" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="H6" s="5"/>
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
+      <c r="L6" s="7"/>
       <c r="N6" s="7"/>
       <c r="O6" s="7"/>
       <c r="P6" s="7"/>
@@ -1053,19 +1063,20 @@
       <c r="D7" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="5"/>
+      <c r="F7" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="H7" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="H7" s="5"/>
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
+      <c r="L7" s="7"/>
       <c r="N7" s="7"/>
       <c r="O7" s="7"/>
       <c r="P7" s="7"/>
@@ -1083,19 +1094,20 @@
       <c r="D8" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="5"/>
+      <c r="F8" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="G8" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="H8" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H8" s="5"/>
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
+      <c r="L8" s="7"/>
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
       <c r="P8" s="7"/>
@@ -1113,19 +1125,20 @@
       <c r="D9" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="7"/>
+      <c r="F9" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="H9" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="H9" s="7"/>
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
       <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
       <c r="N9" s="7"/>
       <c r="O9" s="7"/>
       <c r="P9" s="7"/>
@@ -1143,19 +1156,20 @@
       <c r="D10" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="7"/>
+      <c r="F10" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="H10" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="H10" s="9"/>
-      <c r="I10" s="7"/>
+      <c r="I10" s="9"/>
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
       <c r="N10" s="7"/>
       <c r="O10" s="7"/>
       <c r="P10" s="7"/>
@@ -1173,19 +1187,20 @@
       <c r="D11" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="7"/>
+      <c r="F11" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="H11" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="H11" s="9"/>
-      <c r="I11" s="7"/>
+      <c r="I11" s="9"/>
       <c r="J11" s="7"/>
       <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
       <c r="N11" s="7"/>
       <c r="O11" s="7"/>
       <c r="P11" s="7"/>
@@ -1203,19 +1218,20 @@
       <c r="D12" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="9"/>
+      <c r="F12" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="H12" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="H12" s="7"/>
-      <c r="I12" s="9"/>
+      <c r="I12" s="7"/>
       <c r="J12" s="7"/>
       <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
       <c r="N12" s="7"/>
       <c r="O12" s="7"/>
       <c r="P12" s="7"/>
@@ -1233,19 +1249,20 @@
       <c r="D13" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="9"/>
+      <c r="F13" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="H13" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="H13" s="7"/>
-      <c r="I13" s="9"/>
+      <c r="I13" s="7"/>
       <c r="J13" s="7"/>
       <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
       <c r="N13" s="7"/>
       <c r="O13" s="7"/>
       <c r="P13" s="7"/>
@@ -1263,19 +1280,20 @@
       <c r="D14" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="9"/>
+      <c r="F14" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="H14" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="H14" s="7"/>
-      <c r="I14" s="9"/>
+      <c r="I14" s="7"/>
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
       <c r="N14" s="7"/>
       <c r="O14" s="7"/>
       <c r="P14" s="7"/>
@@ -1293,19 +1311,20 @@
       <c r="D15" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E15" s="7"/>
+      <c r="F15" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="G15" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="G15" s="7" t="s">
+      <c r="H15" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="H15" s="7"/>
       <c r="I15" s="7"/>
       <c r="J15" s="7"/>
       <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
       <c r="N15" s="7"/>
       <c r="O15" s="7"/>
       <c r="P15" s="7"/>
@@ -1323,19 +1342,20 @@
       <c r="D16" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="E16" s="9"/>
+      <c r="F16" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="H16" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="H16" s="7"/>
-      <c r="I16" s="9"/>
+      <c r="I16" s="7"/>
       <c r="J16" s="7"/>
       <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
       <c r="N16" s="7"/>
       <c r="O16" s="7"/>
       <c r="P16" s="7"/>
@@ -1353,19 +1373,20 @@
       <c r="D17" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E17" s="9"/>
+      <c r="F17" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="H17" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="H17" s="7"/>
-      <c r="I17" s="9"/>
+      <c r="I17" s="7"/>
       <c r="J17" s="7"/>
       <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
       <c r="N17" s="7"/>
       <c r="O17" s="7"/>
       <c r="P17" s="7"/>
@@ -1383,19 +1404,20 @@
       <c r="D18" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="E18" s="9"/>
+      <c r="F18" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="H18" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="H18" s="7"/>
-      <c r="I18" s="9"/>
+      <c r="I18" s="7"/>
       <c r="J18" s="7"/>
       <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
       <c r="N18" s="7"/>
       <c r="O18" s="7"/>
       <c r="P18" s="7"/>
@@ -1413,19 +1435,20 @@
       <c r="D19" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="E19" s="9"/>
+      <c r="F19" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="H19" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="H19" s="7"/>
-      <c r="I19" s="9"/>
+      <c r="I19" s="7"/>
       <c r="J19" s="7"/>
       <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
       <c r="N19" s="7"/>
       <c r="O19" s="7"/>
       <c r="P19" s="7"/>
@@ -1443,19 +1466,20 @@
       <c r="D20" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="E20" s="7"/>
+      <c r="F20" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="H20" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="H20" s="7"/>
       <c r="I20" s="7"/>
       <c r="J20" s="7"/>
       <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
       <c r="N20" s="7"/>
       <c r="O20" s="7"/>
       <c r="P20" s="7"/>
@@ -1465,28 +1489,54 @@
       <c r="B21" s="9"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="9"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="7"/>
       <c r="H21" s="9"/>
-      <c r="I21" s="7"/>
+      <c r="I21" s="9"/>
       <c r="J21" s="7"/>
       <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
       <c r="N21" s="7"/>
       <c r="O21" s="7"/>
       <c r="P21" s="7"/>
     </row>
+    <row r="22" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="L22" s="7"/>
+    </row>
+    <row r="23" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="L23" s="7"/>
+    </row>
     <row r="24" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
-      <c r="I24" s="2"/>
+      <c r="E24" s="2"/>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
+      <c r="L24" s="7"/>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
       <c r="Q24" s="2"/>
       <c r="R24" s="2"/>
+    </row>
+    <row r="25" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="L25" s="7"/>
+    </row>
+    <row r="26" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="L26" s="7"/>
+    </row>
+    <row r="27" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="L27" s="7"/>
+    </row>
+    <row r="28" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="L28" s="7"/>
+    </row>
+    <row r="29" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="L29" s="7"/>
+    </row>
+    <row r="32" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="L32" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -1497,10 +1547,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{345B67DD-E558-486D-8E4E-6B0E0B27FBDB}">
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -1508,10 +1558,9 @@
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="26.59765625" customWidth="1"/>
     <col min="3" max="3" width="54.59765625" customWidth="1"/>
-    <col min="4" max="4" width="17.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A1" s="3" t="s">
         <v>86</v>
       </c>
@@ -1521,11 +1570,8 @@
       <c r="C1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="14.25" x14ac:dyDescent="0.45">
+    </row>
+    <row r="2" spans="1:3" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A2" s="6" t="s">
         <v>12</v>
       </c>
@@ -1535,9 +1581,8 @@
       <c r="C2" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="7"/>
-    </row>
-    <row r="3" spans="1:4" ht="14.25" x14ac:dyDescent="0.45">
+    </row>
+    <row r="3" spans="1:3" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A3" s="6" t="s">
         <v>13</v>
       </c>
@@ -1547,9 +1592,8 @@
       <c r="C3" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="7"/>
-    </row>
-    <row r="4" spans="1:4" ht="14.25" x14ac:dyDescent="0.45">
+    </row>
+    <row r="4" spans="1:3" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A4" s="6" t="s">
         <v>14</v>
       </c>
@@ -1559,9 +1603,8 @@
       <c r="C4" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D4" s="7"/>
-    </row>
-    <row r="5" spans="1:4" ht="14.25" x14ac:dyDescent="0.45">
+    </row>
+    <row r="5" spans="1:3" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A5" s="6" t="s">
         <v>15</v>
       </c>
@@ -1572,9 +1615,8 @@
         <f>Dictionary!A4</f>
         <v>est_counts</v>
       </c>
-      <c r="D5" s="7"/>
-    </row>
-    <row r="6" spans="1:4" ht="14.25" x14ac:dyDescent="0.45">
+    </row>
+    <row r="6" spans="1:3" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A6" s="6" t="s">
         <v>16</v>
       </c>
@@ -1584,9 +1626,8 @@
       <c r="C6" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D6" s="7"/>
-    </row>
-    <row r="7" spans="1:4" ht="14.25" x14ac:dyDescent="0.45">
+    </row>
+    <row r="7" spans="1:3" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A7" s="6" t="s">
         <v>17</v>
       </c>
@@ -1596,9 +1637,8 @@
       <c r="C7" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="7"/>
-    </row>
-    <row r="8" spans="1:4" ht="14.25" x14ac:dyDescent="0.45">
+    </row>
+    <row r="8" spans="1:3" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A8" s="6" t="s">
         <v>18</v>
       </c>
@@ -1608,9 +1648,8 @@
       <c r="C8" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="7"/>
-    </row>
-    <row r="9" spans="1:4" ht="14.25" x14ac:dyDescent="0.45">
+    </row>
+    <row r="9" spans="1:3" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A9" s="6" t="s">
         <v>12</v>
       </c>
@@ -1620,9 +1659,8 @@
       <c r="C9" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="7"/>
-    </row>
-    <row r="10" spans="1:4" ht="14.25" x14ac:dyDescent="0.45">
+    </row>
+    <row r="10" spans="1:3" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A10" s="6" t="s">
         <v>19</v>
       </c>
@@ -1633,9 +1671,8 @@
         <f>Dictionary!A12</f>
         <v>test_stat</v>
       </c>
-      <c r="D10" s="7"/>
-    </row>
-    <row r="11" spans="1:4" ht="14.25" x14ac:dyDescent="0.45">
+    </row>
+    <row r="11" spans="1:3" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A11" s="6" t="s">
         <v>20</v>
       </c>
@@ -1646,9 +1683,8 @@
         <f>Dictionary!A10</f>
         <v>pval</v>
       </c>
-      <c r="D11" s="7"/>
-    </row>
-    <row r="12" spans="1:4" ht="14.25" x14ac:dyDescent="0.45">
+    </row>
+    <row r="12" spans="1:3" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A12" s="6" t="s">
         <v>21</v>
       </c>
@@ -1659,9 +1695,8 @@
         <f>Dictionary!A15</f>
         <v>mean_obs</v>
       </c>
-      <c r="D12" s="7"/>
-    </row>
-    <row r="13" spans="1:4" ht="14.25" x14ac:dyDescent="0.45">
+    </row>
+    <row r="13" spans="1:3" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A13" s="6" t="s">
         <v>21</v>
       </c>
@@ -1672,9 +1707,8 @@
         <f>Dictionary!A14</f>
         <v>degrees_free</v>
       </c>
-      <c r="D13" s="7"/>
-    </row>
-    <row r="14" spans="1:4" ht="14.25" x14ac:dyDescent="0.45">
+    </row>
+    <row r="14" spans="1:3" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A14" s="6" t="s">
         <v>21</v>
       </c>
@@ -1685,9 +1719,8 @@
         <f>Dictionary!A20</f>
         <v>final_sigma_sq</v>
       </c>
-      <c r="D14" s="7"/>
-    </row>
-    <row r="15" spans="1:4" ht="14.25" x14ac:dyDescent="0.45">
+    </row>
+    <row r="15" spans="1:3" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A15" s="6" t="s">
         <v>22</v>
       </c>
@@ -1698,9 +1731,8 @@
         <f>Dictionary!A18</f>
         <v>sigma_sq</v>
       </c>
-      <c r="D15" s="7"/>
-    </row>
-    <row r="16" spans="1:4" ht="14.25" x14ac:dyDescent="0.45">
+    </row>
+    <row r="16" spans="1:3" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A16" s="6" t="s">
         <v>22</v>
       </c>
@@ -1711,9 +1743,8 @@
         <f>Dictionary!A19</f>
         <v>smooth_sigma_sq</v>
       </c>
-      <c r="D16" s="7"/>
-    </row>
-    <row r="17" spans="1:4" ht="14.25" x14ac:dyDescent="0.45">
+    </row>
+    <row r="17" spans="1:3" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A17" s="6" t="s">
         <v>23</v>
       </c>
@@ -1724,9 +1755,8 @@
         <f>Dictionary!A8</f>
         <v>Group</v>
       </c>
-      <c r="D17" s="7"/>
-    </row>
-    <row r="18" spans="1:4" ht="14.25" x14ac:dyDescent="0.45">
+    </row>
+    <row r="18" spans="1:3" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A18" s="6" t="s">
         <v>24</v>
       </c>
@@ -1737,9 +1767,8 @@
         <f>Dictionary!A4</f>
         <v>est_counts</v>
       </c>
-      <c r="D18" s="7"/>
-    </row>
-    <row r="19" spans="1:4" ht="14.25" x14ac:dyDescent="0.45">
+    </row>
+    <row r="19" spans="1:3" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A19" s="6" t="s">
         <v>24</v>
       </c>
@@ -1750,9 +1779,8 @@
         <f>Dictionary!A8</f>
         <v>Group</v>
       </c>
-      <c r="D19" s="7"/>
-    </row>
-    <row r="20" spans="1:4" ht="14.25" x14ac:dyDescent="0.45">
+    </row>
+    <row r="20" spans="1:3" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A20" s="6" t="s">
         <v>25</v>
       </c>
@@ -1763,9 +1791,8 @@
         <f>Dictionary!A4</f>
         <v>est_counts</v>
       </c>
-      <c r="D20" s="7"/>
-    </row>
-    <row r="21" spans="1:4" ht="14.25" x14ac:dyDescent="0.45">
+    </row>
+    <row r="21" spans="1:3" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A21" s="6" t="s">
         <v>25</v>
       </c>
@@ -1776,9 +1803,8 @@
         <f>Dictionary!A8</f>
         <v>Group</v>
       </c>
-      <c r="D21" s="7"/>
-    </row>
-    <row r="22" spans="1:4" ht="14.25" x14ac:dyDescent="0.45">
+    </row>
+    <row r="22" spans="1:3" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A22" s="6" t="s">
         <v>26</v>
       </c>
@@ -1789,9 +1815,8 @@
         <f>Dictionary!A4</f>
         <v>est_counts</v>
       </c>
-      <c r="D22" s="7"/>
-    </row>
-    <row r="23" spans="1:4" ht="14.25" x14ac:dyDescent="0.45">
+    </row>
+    <row r="23" spans="1:3" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A23" s="6" t="s">
         <v>26</v>
       </c>
@@ -1802,9 +1827,8 @@
         <f>Dictionary!A8</f>
         <v>Group</v>
       </c>
-      <c r="D23" s="7"/>
-    </row>
-    <row r="24" spans="1:4" ht="14.25" x14ac:dyDescent="0.45">
+    </row>
+    <row r="24" spans="1:3" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A24" s="6" t="s">
         <v>27</v>
       </c>
@@ -1815,9 +1839,8 @@
         <f>Dictionary!A4</f>
         <v>est_counts</v>
       </c>
-      <c r="D24" s="7"/>
-    </row>
-    <row r="25" spans="1:4" ht="14.25" x14ac:dyDescent="0.45">
+    </row>
+    <row r="25" spans="1:3" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A25" s="6" t="s">
         <v>27</v>
       </c>
@@ -1828,9 +1851,8 @@
         <f>Dictionary!A8</f>
         <v>Group</v>
       </c>
-      <c r="D25" s="7"/>
-    </row>
-    <row r="26" spans="1:4" ht="14.25" x14ac:dyDescent="0.45">
+    </row>
+    <row r="26" spans="1:3" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A26" s="6" t="s">
         <v>28</v>
       </c>
@@ -1840,9 +1862,8 @@
       <c r="C26" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D26" s="7"/>
-    </row>
-    <row r="27" spans="1:4" ht="14.25" x14ac:dyDescent="0.45">
+    </row>
+    <row r="27" spans="1:3" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A27" s="6" t="s">
         <v>28</v>
       </c>
@@ -1852,9 +1873,8 @@
       <c r="C27" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D27" s="7"/>
-    </row>
-    <row r="28" spans="1:4" ht="14.25" x14ac:dyDescent="0.45">
+    </row>
+    <row r="28" spans="1:3" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A28" s="6" t="s">
         <v>29</v>
       </c>
@@ -1864,9 +1884,8 @@
       <c r="C28" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D28" s="7"/>
-    </row>
-    <row r="29" spans="1:4" ht="14.25" x14ac:dyDescent="0.45">
+    </row>
+    <row r="29" spans="1:3" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A29" s="6" t="s">
         <v>29</v>
       </c>
@@ -1876,15 +1895,13 @@
       <c r="C29" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D29" s="7"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
     </row>
-    <row r="32" spans="1:4" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:3" ht="14.25" x14ac:dyDescent="0.45">
       <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/runs/run1/isa.run.xlsx
+++ b/runs/run1/isa.run.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David Zimmer\source\repos\Hackathon\Hackathon_ARCexample_rnaseq\runs\run1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BB929E4-AB9D-4248-B750-83047D76EF0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B0F5299-3753-4187-9385-71A909955157}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="7710" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -177,9 +177,6 @@
     <t>./externals/Talinum.gm.CDS.nt.fa</t>
   </si>
   <si>
-    <t>./assays/Talinum_RNASeq_minimal/assay.isa.xlsx</t>
-  </si>
-  <si>
     <t>./workflows/04_Sleuth.R</t>
   </si>
   <si>
@@ -322,6 +319,9 @@
   </si>
   <si>
     <t>./runs/run1/04_sleuth_dge.csv</t>
+  </si>
+  <si>
+    <t>./assays/Talinum_RNASeq_minimal/isa.assay.xlsx</t>
   </si>
 </sst>
 </file>
@@ -835,11 +835,11 @@
   </sheetPr>
   <dimension ref="A1:R32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C16" sqref="C16"/>
+      <selection pane="bottomRight" activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -859,7 +859,7 @@
   <sheetData>
     <row r="1" spans="1:16" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>2</v>
@@ -900,23 +900,23 @@
         <v>12</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>39</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="5"/>
@@ -931,23 +931,23 @@
         <v>13</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>39</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I3" s="7"/>
       <c r="J3" s="5"/>
@@ -962,20 +962,20 @@
         <v>14</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>39</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>30</v>
@@ -993,23 +993,23 @@
         <v>15</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>39</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
@@ -1024,23 +1024,23 @@
         <v>16</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>39</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
@@ -1055,23 +1055,23 @@
         <v>17</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>39</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
@@ -1086,17 +1086,17 @@
         <v>18</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>39</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>18</v>
@@ -1117,20 +1117,20 @@
         <v>12</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H9" s="7" t="s">
         <v>38</v>
@@ -1148,20 +1148,20 @@
         <v>19</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H10" s="7" t="s">
         <v>32</v>
@@ -1179,20 +1179,20 @@
         <v>20</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H11" s="7" t="s">
         <v>33</v>
@@ -1210,20 +1210,20 @@
         <v>21</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E12" s="9"/>
       <c r="F12" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H12" s="7" t="s">
         <v>34</v>
@@ -1241,20 +1241,20 @@
         <v>22</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E13" s="9"/>
       <c r="F13" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H13" s="7" t="s">
         <v>35</v>
@@ -1272,20 +1272,20 @@
         <v>23</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E14" s="9"/>
       <c r="F14" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H14" s="7" t="s">
         <v>36</v>
@@ -1303,23 +1303,23 @@
         <v>24</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I15" s="7"/>
       <c r="J15" s="7"/>
@@ -1334,20 +1334,20 @@
         <v>25</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E16" s="9"/>
       <c r="F16" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H16" s="7" t="s">
         <v>37</v>
@@ -1365,23 +1365,23 @@
         <v>26</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E17" s="9"/>
       <c r="F17" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I17" s="7"/>
       <c r="J17" s="7"/>
@@ -1396,20 +1396,20 @@
         <v>27</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E18" s="9"/>
       <c r="F18" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H18" s="7" t="s">
         <v>37</v>
@@ -1427,23 +1427,23 @@
         <v>28</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E19" s="9"/>
       <c r="F19" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I19" s="7"/>
       <c r="J19" s="7"/>
@@ -1458,23 +1458,23 @@
         <v>29</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E20" s="7"/>
       <c r="F20" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I20" s="7"/>
       <c r="J20" s="7"/>
@@ -1549,8 +1549,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{345B67DD-E558-486D-8E4E-6B0E0B27FBDB}">
   <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -1562,7 +1562,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A1" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>2</v>
@@ -1576,7 +1576,7 @@
         <v>12</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>40</v>
@@ -1587,10 +1587,10 @@
         <v>13</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>41</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14.25" x14ac:dyDescent="0.45">
@@ -1598,10 +1598,10 @@
         <v>14</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>41</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14.25" x14ac:dyDescent="0.45">
@@ -1609,7 +1609,7 @@
         <v>15</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C5" s="7" t="str">
         <f>Dictionary!A4</f>
@@ -1621,7 +1621,7 @@
         <v>16</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>40</v>
@@ -1632,7 +1632,7 @@
         <v>17</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>40</v>
@@ -1643,10 +1643,10 @@
         <v>18</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>41</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="14.25" x14ac:dyDescent="0.45">
@@ -1654,7 +1654,7 @@
         <v>12</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>40</v>
@@ -1665,7 +1665,7 @@
         <v>19</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C10" s="6" t="str">
         <f>Dictionary!A12</f>
@@ -1677,7 +1677,7 @@
         <v>20</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C11" s="7" t="str">
         <f>Dictionary!A10</f>
@@ -1689,7 +1689,7 @@
         <v>21</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C12" s="7" t="str">
         <f>Dictionary!A15</f>
@@ -1701,7 +1701,7 @@
         <v>21</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C13" s="7" t="str">
         <f>Dictionary!A14</f>
@@ -1713,7 +1713,7 @@
         <v>21</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C14" s="7" t="str">
         <f>Dictionary!A20</f>
@@ -1725,7 +1725,7 @@
         <v>22</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C15" s="7" t="str">
         <f>Dictionary!A18</f>
@@ -1737,7 +1737,7 @@
         <v>22</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C16" s="7" t="str">
         <f>Dictionary!A19</f>
@@ -1749,7 +1749,7 @@
         <v>23</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C17" s="7" t="str">
         <f>Dictionary!A8</f>
@@ -1761,7 +1761,7 @@
         <v>24</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C18" s="7" t="str">
         <f>Dictionary!A4</f>
@@ -1773,7 +1773,7 @@
         <v>24</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C19" s="7" t="str">
         <f>Dictionary!A8</f>
@@ -1785,7 +1785,7 @@
         <v>25</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C20" s="7" t="str">
         <f>Dictionary!A4</f>
@@ -1797,7 +1797,7 @@
         <v>25</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C21" s="7" t="str">
         <f>Dictionary!A8</f>
@@ -1809,7 +1809,7 @@
         <v>26</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C22" s="7" t="str">
         <f>Dictionary!A4</f>
@@ -1821,7 +1821,7 @@
         <v>26</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C23" s="7" t="str">
         <f>Dictionary!A8</f>
@@ -1833,7 +1833,7 @@
         <v>27</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C24" s="7" t="str">
         <f>Dictionary!A4</f>
@@ -1845,7 +1845,7 @@
         <v>27</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C25" s="7" t="str">
         <f>Dictionary!A8</f>
@@ -1857,7 +1857,7 @@
         <v>28</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>24</v>
@@ -1868,7 +1868,7 @@
         <v>28</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C27" s="6" t="s">
         <v>27</v>
@@ -1879,7 +1879,7 @@
         <v>29</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>27</v>
@@ -1890,7 +1890,7 @@
         <v>29</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>28</v>
